--- a/data/Grahametal2023_BeeTraits.xlsx
+++ b/data/Grahametal2023_BeeTraits.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prglaum\Documents\Pollinators-Empirical\CCmanuscript\pubAttempt2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prglaum\Documents\Pollinators-Empirical\CCmanuscript\pubAttempt2\githubCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1638,7 +1638,7 @@
     <t>kurtosis of Julian days in data per species</t>
   </si>
   <si>
-    <t>depicts species outcome category in major sampling periods: 1 - present in 1972/1973, 2 - present in both periods, 3 - present in 2017/2018</t>
+    <t>depicts species outcome category in major sampling periods: 1 - only present in 1972/1973, 2 - only present in 2017/2018, 3 - present in both periods</t>
   </si>
 </sst>
 </file>
@@ -1973,8 +1973,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC218"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="AR18" sqref="AR18"/>
+    <sheetView topLeftCell="BI1" zoomScale="79" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="BP1" sqref="BP1"/>
+      <selection pane="bottomLeft" activeCell="BZ208" sqref="BZ208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -55278,9 +55280,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H92" sqref="H92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -56278,13 +56280,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A82:H82"/>
+    <mergeCell ref="A87:H87"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A53:H53"/>
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A75:H75"/>
-    <mergeCell ref="A82:H82"/>
-    <mergeCell ref="A87:H87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
